--- a/data/trans_dic/P34C_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P34C_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P34C_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P34C_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>36,08; 55,84</t>
+          <t>35,55; 56,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,4; 45,44</t>
+          <t>31,1; 44,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,48; 48,24</t>
+          <t>34,99; 47,32</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31,68; 40,32</t>
+          <t>31,66; 40,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,3; 42,07</t>
+          <t>35,1; 41,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,68; 39,94</t>
+          <t>34,71; 40,15</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,42; 43,24</t>
+          <t>32,1; 42,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,48; 39,57</t>
+          <t>34,4; 39,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34,5; 40,45</t>
+          <t>34,89; 40,62</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>47,83; 56,87</t>
+          <t>48,24; 56,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,14; 43,34</t>
+          <t>24,93; 43,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,75; 48,19</t>
+          <t>34,56; 48,04</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>46,45; 53,24</t>
+          <t>46,57; 53,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,3; 46,21</t>
+          <t>40,13; 46,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>44,0; 48,75</t>
+          <t>43,87; 48,49</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>42,16; 46,75</t>
+          <t>42,06; 46,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>34,84; 41,0</t>
+          <t>35,48; 41,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>39,17; 43,12</t>
+          <t>39,33; 43,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P34C_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P34C_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>45,26%</t>
+          <t>37,93%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>38,03%</t>
+          <t>38,88%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>41,2%</t>
+          <t>38,42%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>35,55; 56,04</t>
+          <t>33,47; 42,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,1; 44,47</t>
+          <t>35,95; 41,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,99; 47,32</t>
+          <t>35,93; 41,31</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>35,99%</t>
+          <t>33,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>38,54%</t>
+          <t>37,65%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>37,31%</t>
+          <t>35,19%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31,66; 40,97</t>
+          <t>15,89; 42,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,1; 41,91</t>
+          <t>34,95; 40,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,71; 40,15</t>
+          <t>23,91; 40,51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>39,05%</t>
+          <t>53,2%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>37,11%</t>
+          <t>32,18%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>38,07%</t>
+          <t>41,22%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>32,1; 42,92</t>
+          <t>48,78; 57,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,4; 39,71</t>
+          <t>17,85; 42,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34,89; 40,62</t>
+          <t>27,52; 48,24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>52,34%</t>
+          <t>50,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>36,74%</t>
+          <t>41,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,83%</t>
+          <t>45,78%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>48,24; 56,97</t>
+          <t>47,28; 54,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,93; 43,09</t>
+          <t>32,63; 45,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,56; 48,04</t>
+          <t>39,97; 48,29</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>49,87%</t>
+          <t>42,83%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>43,41%</t>
+          <t>37,67%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>46,37%</t>
+          <t>40,18%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>46,57; 53,6</t>
+          <t>34,03; 46,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,13; 46,41</t>
+          <t>30,46; 40,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,87; 48,49</t>
+          <t>35,25; 43,1</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>44,69%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>39,18%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>41,77%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>42,06; 46,71</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>35,48; 41,12</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>39,33; 43,34</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
